--- a/result/year/year_return.xlsx
+++ b/result/year/year_return.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2642</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
         </is>
       </c>
     </row>
@@ -469,6 +489,10 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,10 +508,22 @@
         <v>0.1653364787849743</v>
       </c>
       <c r="E3" t="n">
+        <v>0.6137404029555347</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3715635564324833</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.340418368532724</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3434506320026753</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>0.2822646743220072</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2536119427181998</v>
       </c>
     </row>
     <row r="4">
@@ -504,10 +540,22 @@
         <v>-0.003342621496690068</v>
       </c>
       <c r="E4" t="n">
+        <v>-1.419910971918876</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.8269378756622596</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.5034329258949302</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.7474462321314799</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>-0.8192984658868454</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.2123982494621295</v>
       </c>
     </row>
     <row r="5">
@@ -524,10 +572,22 @@
         <v>-0.1335313926245227</v>
       </c>
       <c r="E5" t="n">
+        <v>-1.400410622381008</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.285195539881776</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.1710538319476123</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.1084653469779169</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>-0.1366575223797413</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.2053896859933655</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +604,22 @@
         <v>-0.09914405031504669</v>
       </c>
       <c r="E6" t="n">
+        <v>0.1992827701873032</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1940261527434828</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04598511324182342</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.3351637640760052</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>-0.3602596713401174</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.2097206143352714</v>
       </c>
     </row>
     <row r="7">
@@ -564,10 +636,22 @@
         <v>0.07461086379117488</v>
       </c>
       <c r="E7" t="n">
+        <v>0.2675953138850433</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05741090721333908</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.08191712246788674</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2813692824774052</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>-0.07156128147340945</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.08994157107304801</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +668,22 @@
         <v>0.1535902987534734</v>
       </c>
       <c r="E8" t="n">
+        <v>-0.8695731073066952</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2252917798524994</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.08353311261330498</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.1527124514763667</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>-0.1606007145927406</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1398873864508747</v>
       </c>
     </row>
     <row r="9">
@@ -604,10 +700,22 @@
         <v>-0.1418942589902823</v>
       </c>
       <c r="E9" t="n">
+        <v>0.5893990112147918</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.25489224962879</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.2312253637841239</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1440393702229379</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>0.04430025889657996</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.1041712829326951</v>
       </c>
     </row>
     <row r="10">
@@ -624,10 +732,22 @@
         <v>-0.003883500026397702</v>
       </c>
       <c r="E10" t="n">
+        <v>0.6621777175210699</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1892419996385284</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4930067078037474</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5571238853252436</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>0.3293037471426006</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1099641653725794</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +764,22 @@
         <v>0.185343359222871</v>
       </c>
       <c r="E11" t="n">
+        <v>-0.1888711485309962</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.2808091931640191</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1661566199405993</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2981065897876651</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>0.243557267542843</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.07769506024468065</v>
       </c>
     </row>
     <row r="12">
@@ -663,9 +795,21 @@
       <c r="D12" t="n">
         <v>0.05452083887841708</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>-0.003590668130728503</v>
+      </c>
       <c r="F12" t="n">
+        <v>0.0915671935254907</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.05064373281875456</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
         <v>-0.1629613095094133</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.1119442888445388</v>
       </c>
     </row>
     <row r="13">
@@ -681,9 +825,21 @@
       <c r="D13" t="n">
         <v>-0.454612478925438</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>-0.1386833875339506</v>
+      </c>
       <c r="F13" t="n">
+        <v>0.09531017980432477</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.06534988020845045</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
         <v>-0.4199500410295318</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.08500075419777708</v>
       </c>
     </row>
     <row r="14">
@@ -699,9 +855,21 @@
       <c r="D14" t="n">
         <v>-0.04437868719354965</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.8478880049897546</v>
+      </c>
       <c r="F14" t="n">
+        <v>0.6701576623352468</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5034995836739178</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
         <v>0.8239391341095756</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2380097065510718</v>
       </c>
     </row>
     <row r="15">
@@ -717,9 +885,21 @@
       <c r="D15" t="n">
         <v>-0.2595111954850848</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>-0.8437642878058926</v>
+      </c>
       <c r="F15" t="n">
+        <v>-0.8211567480001603</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2724937827063467</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
         <v>0.007358384931186901</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.09148124203673369</v>
       </c>
     </row>
     <row r="16">
@@ -735,9 +915,21 @@
       <c r="D16" t="n">
         <v>-0.4871431391224315</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>-0.1847937459393436</v>
+      </c>
       <c r="F16" t="n">
+        <v>-0.3984413742288568</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.5680499115890338</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
         <v>-0.2984929885559966</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.5785373180407554</v>
       </c>
     </row>
     <row r="17">
@@ -753,9 +945,21 @@
       <c r="D17" t="n">
         <v>0.09466522654107834</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0.9103324222905247</v>
+      </c>
       <c r="F17" t="n">
+        <v>0.6468146239189467</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6032570682249601</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
         <v>-0.2350721221794836</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6166589302677998</v>
       </c>
     </row>
     <row r="18">
@@ -771,9 +975,21 @@
       <c r="D18" t="n">
         <v>0.3456466128972542</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>-0.2890109763018347</v>
+      </c>
       <c r="F18" t="n">
+        <v>0.04370443423472903</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.8015152172817275</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
         <v>0.1266326509333662</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.08364456945886545</v>
       </c>
     </row>
     <row r="19">
@@ -789,9 +1005,21 @@
       <c r="D19" t="n">
         <v>-1.020890501964672</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0.1271948698387297</v>
+      </c>
       <c r="F19" t="n">
+        <v>0.04816340137862296</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.8408927143899434</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
         <v>-0.2045941924030781</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.1779485623585195</v>
       </c>
     </row>
     <row r="20">
@@ -807,9 +1035,21 @@
       <c r="D20" t="n">
         <v>0.2857791223056947</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0.3599482692837017</v>
+      </c>
       <c r="F20" t="n">
+        <v>0.1264531090409267</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>0.2809023854664026</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.06443733012744168</v>
       </c>
     </row>
     <row r="21">
@@ -825,9 +1065,21 @@
       <c r="D21" t="n">
         <v>-0.2351197423609253</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0.09649782839998089</v>
+      </c>
       <c r="F21" t="n">
+        <v>-0.2080644444870896</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.3353555419211376</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
         <v>-0.4386631775177605</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.0414011137748922</v>
       </c>
     </row>
     <row r="22">
@@ -844,9 +1096,13 @@
         <v>-0.2367904651553918</v>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
         <v>0.08489944378648628</v>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -862,9 +1118,13 @@
         <v>0.03745756253490051</v>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
         <v>0.0942525382461894</v>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -880,9 +1140,13 @@
         <v>0.3956128116651527</v>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
         <v>0.9444616088408515</v>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -898,9 +1162,13 @@
         <v>0.07622736538788422</v>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
         <v>-0.3112778930484632</v>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -917,6 +1185,10 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -933,6 +1205,10 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -949,6 +1225,10 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -965,6 +1245,10 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -981,6 +1265,10 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -997,6 +1285,10 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1013,6 +1305,10 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1029,6 +1325,10 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1045,6 +1345,10 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1057,6 +1361,10 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1069,6 +1377,10 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
